--- a/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
+++ b/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhasip\Desktop\NGConsys Automation_01_02_2019\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A5E4A-28D1-4E9C-A1B9-D4EDA9034AF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H4" sqref="H4:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,6 +621,13 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -629,30 +637,38 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="H5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>32</v>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -678,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" s="10">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="10">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -716,35 +732,18 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" s="10">
         <v>0.2</v>
       </c>
       <c r="L8" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="10">
         <v>0.2</v>
       </c>
     </row>

--- a/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
+++ b/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A5E4A-28D1-4E9C-A1B9-D4EDA9034AF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -132,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,10 +725,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="16">
-        <v>0.30099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="16">
-        <v>0.38700000000000001</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>26</v>

--- a/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
+++ b/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Color Codes</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>Default Battery Standby</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +579,7 @@
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -578,7 +590,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -593,7 +605,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -608,7 +620,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -628,7 +640,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -651,8 +663,14 @@
       <c r="L5" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="H6" s="6" t="s">
         <v>29</v>
@@ -669,8 +687,14 @@
       <c r="L6" s="10">
         <v>0.09</v>
       </c>
+      <c r="M6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -707,8 +731,14 @@
       <c r="L7" s="10">
         <v>0.2</v>
       </c>
+      <c r="M7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -744,6 +774,12 @@
       </c>
       <c r="L8" s="10">
         <v>0.2</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
+++ b/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,10 +134,10 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7:N8"/>
     </sheetView>
   </sheetViews>
@@ -577,6 +577,8 @@
     <col min="8" max="8" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="25.21875" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">

--- a/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
+++ b/Test Data/TC_151_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Devices_In_Zetfast.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D73E59-05B7-402B-9316-F0D448E8A9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Color Codes</t>
   </si>
@@ -74,9 +83,6 @@
     <t>Row Number</t>
   </si>
   <si>
-    <t>CPU 801</t>
-  </si>
-  <si>
     <t xml:space="preserve">verify 40V Load On Addition Deletion of Ethernet </t>
   </si>
   <si>
@@ -138,12 +144,24 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>NGC-488/T399 OR TC-151</t>
+  </si>
+  <si>
+    <t>0.300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -279,6 +297,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>0</v>
@@ -612,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -626,7 +647,9 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -635,7 +658,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -651,37 +674,37 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="M5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="H6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="K6" s="10">
         <v>0.09</v>
@@ -690,10 +713,10 @@
         <v>0.09</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -713,31 +736,31 @@
         <v>15</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.2</v>
+      <c r="K7" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="L7" s="10">
-        <v>0.2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -747,8 +770,8 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>14</v>
@@ -756,32 +779,32 @@
       <c r="E8" s="6">
         <v>14</v>
       </c>
-      <c r="F8" s="16">
-        <v>0.3</v>
+      <c r="F8" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="G8" s="16">
         <v>0.61199999999999999</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.2</v>
+      <c r="K8" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="L8" s="10">
-        <v>0.2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
